--- a/target/classes/templateExcel/压力数据项.xlsx
+++ b/target/classes/templateExcel/压力数据项.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="24930" windowHeight="10610"/>
   </bookViews>
   <sheets>
     <sheet name="数据项" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="150">
   <si>
     <t>描述</t>
   </si>
@@ -416,6 +416,54 @@
   </si>
   <si>
     <t>五十三层冷却板供水压力</t>
+  </si>
+  <si>
+    <t>第一层炉身静压4_45°</t>
+  </si>
+  <si>
+    <t>RG1_BFP_001_004</t>
+  </si>
+  <si>
+    <t>第一层炉身静压3_135°</t>
+  </si>
+  <si>
+    <t>RG1_BFP_001_003</t>
+  </si>
+  <si>
+    <t>第一层炉身静压2_225°</t>
+  </si>
+  <si>
+    <t>RG1_BFP_001_002</t>
+  </si>
+  <si>
+    <t>第一层炉身静压1_315°</t>
+  </si>
+  <si>
+    <t>RG1_BFP_001_001</t>
+  </si>
+  <si>
+    <t>第二层炉身静压4_45°</t>
+  </si>
+  <si>
+    <t>RG1_BFP_002_004</t>
+  </si>
+  <si>
+    <t>第二层炉身静压3_135°</t>
+  </si>
+  <si>
+    <t>RG1_BFP_002_003</t>
+  </si>
+  <si>
+    <t>第二层炉身静压2_225°</t>
+  </si>
+  <si>
+    <t>RG1_BFP_002_002</t>
+  </si>
+  <si>
+    <t>第二层炉身静压1_315°</t>
+  </si>
+  <si>
+    <t>RG1_BFP_002_001</t>
   </si>
 </sst>
 </file>
@@ -423,13 +471,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +499,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -465,16 +519,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,13 +528,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,21 +544,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,6 +569,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,7 +606,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +614,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,13 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,13 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,85 +694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,12 +718,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -760,13 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,13 +754,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,26 +878,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,6 +944,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -918,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -930,137 +984,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,6 +1128,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,15 +1481,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D446"/>
+  <dimension ref="A1:D454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="G451" sqref="G451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="25.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="4" width="25.7818181818182" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7679,6 +7736,118 @@
         <v>315</v>
       </c>
     </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C447" s="5">
+        <v>22.707</v>
+      </c>
+      <c r="D447" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C448" s="5">
+        <v>22.707</v>
+      </c>
+      <c r="D448" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C449" s="5">
+        <v>22.707</v>
+      </c>
+      <c r="D449" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C450" s="5">
+        <v>22.707</v>
+      </c>
+      <c r="D450" s="5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C451" s="5">
+        <v>29.665</v>
+      </c>
+      <c r="D451" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C452" s="5">
+        <v>29.665</v>
+      </c>
+      <c r="D452" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C453" s="5">
+        <v>29.665</v>
+      </c>
+      <c r="D453" s="5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C454" s="5">
+        <v>29.665</v>
+      </c>
+      <c r="D454" s="5">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
